--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -57421,7 +57421,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -54421,7 +54421,9 @@
       <c r="P1018" t="n">
         <v>0</v>
       </c>
-      <c r="Q1018" t="inlineStr"/>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -57533,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1019"/>
+  <dimension ref="A1:R1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57537,6 +57537,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>2062.75</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>2092.75</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>2038.150024414062</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>2038.150024414062</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>635743</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>2206.800048828125</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>2014.949951171875</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>2051.300048828125</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>2051.300048828125</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>2029561</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1021"/>
+  <dimension ref="A1:R1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -57469,7 +57469,7 @@
         <v>23</v>
       </c>
       <c r="O1018" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1018" t="n">
         <v>0</v>
@@ -57589,7 +57589,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57643,7 +57645,1829 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1024.396809817233</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>1136.72102142</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1024.396809817233</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1073.12060546875</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>5222000</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1077.313963233779</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1167.547743981928</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1013.38898381056</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1059.84130859375</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>5560322</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1069.37645530537</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1078.012841548214</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>961.5451522127612</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>972.3782348632812</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>1691184</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>971.7541672619054</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>1034.880346357742</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>939.5794860657371</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1011.192443847656</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>1815192</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1023.822750167376</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1077.313986715144</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>965.9882132964797</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>972.0287475585938</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>2387384</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>944.5217798617156</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>975.1987445833196</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>897.720026763388</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>921.2332153320312</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>1627118</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>900.0913301530969</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>997.4389781729826</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>900.0913301530969</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>953.1832275390625</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>2877482</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>960.8962103086694</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>982.9616532115522</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>949.4890138799071</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>952.609130859375</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>726974</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>960.4968088397658</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>1004.428055813726</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>936.5592958020275</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>956.7027587890625</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>1933144</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>960.4967739291311</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>992.4467705671063</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>939.0303699379914</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>951.6106567382812</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>1169244</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>952.0250244140625</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>939.0250244140625</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1023.325012207031</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>5291848</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1027.5</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>1032.5</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>947.0499877929688</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>2253436</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>967</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>903.0250244140625</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>906.6749877929688</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>1674320</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>905.5250244140625</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>929.5</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>890.4000244140625</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>1125548</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>890.4000244140625</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>905.2999877929688</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>847.7999877929688</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>887.2750244140625</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>1115140</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>897.4749755859375</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>837.5499877929688</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>855.25</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>737384</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>876.0499877929688</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>892.3499755859375</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>778.1500244140625</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>785.5999755859375</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>1355698</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>785</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>822</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>735</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>815.5499877929688</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>2866116</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>815.0499877929688</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>823.5499877929688</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>783.7750244140625</v>
+      </c>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="n">
+        <v>655732</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>783.7750244140625</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>786.7999877929688</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>725</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>727.0250244140625</v>
+      </c>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="n">
+        <v>1474544</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>740</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>754.5</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>694</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>709.3250122070312</v>
+      </c>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="n">
+        <v>833040</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>723.4500122070312</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>790</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>720.0250244140625</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>784.0999755859375</v>
+      </c>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="n">
+        <v>818458</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>792</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>821.9500122070312</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>772.7999877929688</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>805.6749877929688</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>703280</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>807.125</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>898.8250122070312</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>802.0499877929688</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>881.625</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>8035196</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>881.0999755859375</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>891</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>813</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>819.625</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>1301306</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>857.5</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>860</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>779</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>783.7000122070312</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>1481720</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>787</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>757.5</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>789.1749877929688</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>879042</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>799.2000122070312</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>799.2000122070312</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>732.7000122070312</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>817470</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>721.2750244140625</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>802.5</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>695.5</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>754.8499755859375</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>2961846</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>754.9749755859375</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>804.9749755859375</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>730.375</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>738.4500122070312</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>1642380</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>735.0250244140625</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>824</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>663.0250244140625</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>801.5499877929688</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>5546048</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>765.7000122070312</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>783.8499755859375</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>701</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>712.2999877929688</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>1084897</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>715.6500244140625</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>721.4500122070312</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>589.9500122070312</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>594.7999877929688</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>2492470</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>593</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>676.2000122070312</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>557</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>605</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>8476474</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>597.0499877929688</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>609.4000244140625</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>514</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>2510644</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JBMA.NS.xlsx
+++ b/stock_historical_data/1wk/JBMA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1056"/>
+  <dimension ref="A1:R1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57699,7 +57699,9 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57751,7 +57753,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57803,7 +57807,9 @@
       <c r="Q1024" t="n">
         <v>2</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57855,7 +57861,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57907,7 +57915,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57959,7 +57969,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -58011,7 +58023,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58063,7 +58077,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58115,7 +58131,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58167,7 +58185,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58219,7 +58239,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58271,7 +58293,9 @@
       <c r="Q1033" t="n">
         <v>1</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58323,7 +58347,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58375,7 +58401,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58427,7 +58455,9 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
@@ -58479,7 +58509,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58531,7 +58563,9 @@
       <c r="Q1038" t="n">
         <v>2</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58583,7 +58617,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58635,7 +58671,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58687,7 +58725,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58739,7 +58779,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58791,7 +58833,9 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
@@ -58843,7 +58887,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58895,7 +58941,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -58947,7 +58995,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -58999,7 +59049,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59051,7 +59103,9 @@
       <c r="Q1048" t="n">
         <v>1</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59103,7 +59157,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59155,7 +59211,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59207,7 +59265,9 @@
       <c r="Q1051" t="n">
         <v>2</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59259,7 +59319,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59311,7 +59373,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59363,7 +59427,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59415,7 +59481,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59467,7 +59535,217 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>513.9500122070312</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>568.8499755859375</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>491.4500122070312</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>549.0999755859375</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>3144868</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>554.2999877929688</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>556.7000122070312</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>494.1499938964844</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>1659111</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>495</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>573</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>489.7999877929688</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>568</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>2308847</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>574.7000122070312</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>574.7000122070312</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>591.7999877929688</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>17388119</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
